--- a/assets/Soccer field.xlsx
+++ b/assets/Soccer field.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6494ba03c4cafcfc/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyleb\CascadeProjects\soccer-quizzes\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="8_{70A16E23-6E2B-4B8C-B6F4-99B3D62E7AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD83DE0E-81A8-4EFB-9102-FEEC70AA0EC3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B4F9E1-7BC2-427E-8637-BB0466451F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="5" xr2:uid="{7361E846-5AA0-4544-8D40-95C0EDEB2A5A}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="9" xr2:uid="{7361E846-5AA0-4544-8D40-95C0EDEB2A5A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Formation" sheetId="5" r:id="rId1"/>
-    <sheet name="Formation (2)" sheetId="6" r:id="rId2"/>
-    <sheet name="field long 3rds" sheetId="7" r:id="rId3"/>
-    <sheet name="field zones 3rds" sheetId="9" r:id="rId4"/>
-    <sheet name="crossing R" sheetId="3" r:id="rId5"/>
-    <sheet name="crossing L" sheetId="10" r:id="rId6"/>
-    <sheet name="crossing R (back)" sheetId="8" r:id="rId7"/>
+    <sheet name="Formation blank" sheetId="13" r:id="rId1"/>
+    <sheet name="Formation" sheetId="5" r:id="rId2"/>
+    <sheet name="Formation (2)" sheetId="6" r:id="rId3"/>
+    <sheet name="field long 3rds" sheetId="7" r:id="rId4"/>
+    <sheet name="field zones 3rds" sheetId="9" r:id="rId5"/>
+    <sheet name="crossing R" sheetId="3" r:id="rId6"/>
+    <sheet name="crossing L" sheetId="10" r:id="rId7"/>
+    <sheet name="crossing R (back)" sheetId="8" r:id="rId8"/>
+    <sheet name="BOTB" sheetId="12" r:id="rId9"/>
+    <sheet name="Jax - Formation" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -109,6 +112,1924 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>536552</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>179292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>14921</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>4461</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B48A7D23-36C1-4B85-AE44-1C8BC7CA5F7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="5077094" y="3871339"/>
+          <a:ext cx="15513404" cy="11117545"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552824</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>119530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>82178</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Oval 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AED79561-DDEC-4171-A168-F0B08D381FA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1165412" y="7403354"/>
+          <a:ext cx="918882" cy="522942"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1200" b="0"/>
+            <a:t>Canaan</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>597648</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>55283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>70224</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Oval 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EE2C920-0B56-4812-8057-601C62EA3D45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2435413" y="8272930"/>
+          <a:ext cx="986116" cy="575235"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1200" b="0"/>
+            <a:t>Brayden</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>497540</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>97119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Oval 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D3A56ED-91FA-48C3-99AF-B1A5F1A9BDA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1110128" y="8875060"/>
+          <a:ext cx="884519" cy="590175"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1200" b="0"/>
+            <a:t>Skyler</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>500530</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>167342</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>167341</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>134472</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Oval 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{576D4006-F7AA-4BD0-AC3F-28ADAE7980E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1113118" y="8198224"/>
+          <a:ext cx="891988" cy="527424"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1200" b="0"/>
+            <a:t>Callum</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>245199</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>89645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>194236</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>29882</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Oval 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{932B02ED-848E-4BFB-B07F-4993FB135CC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12496964" y="15777880"/>
+          <a:ext cx="1174213" cy="500531"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="1"/>
+            <a:t>Easton</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>593166</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>170331</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>271930</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>185272</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Oval 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACD1C39D-5204-42C3-AF77-689A10EE24B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2430931" y="8948272"/>
+          <a:ext cx="903940" cy="575235"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1200" b="0"/>
+            <a:t>Logan</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25401</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>5978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>316753</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>20919</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Oval 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2204707-E4C5-43D9-BDA9-5FDB4562EB0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2475754" y="7476566"/>
+          <a:ext cx="903940" cy="575235"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1200" b="0"/>
+            <a:t>Alex</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>548341</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>55284</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>242046</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>17931</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Oval 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE7AEA09-444B-4614-AAD1-AA972E07A6C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1160929" y="6778813"/>
+          <a:ext cx="918882" cy="522942"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1200" b="0"/>
+            <a:t>Gratian</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>611095</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>23908</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>289859</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38848</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Oval 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{936229BE-258C-44DC-9F89-65E2BFBAF1AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2448860" y="6747437"/>
+          <a:ext cx="903940" cy="575235"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1200" b="0"/>
+            <a:t>Noah</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1200" b="0" baseline="0"/>
+            <a:t> S</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1200" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1494</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>373529</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>34366</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Oval 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19EEE2EB-60A2-46BA-889F-4D98417462A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2451847" y="5995896"/>
+          <a:ext cx="984623" cy="575235"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1200" b="0"/>
+            <a:t>Noah</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1200" b="0" baseline="0"/>
+            <a:t> M</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1200" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>599143</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>34367</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>277906</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>49307</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Oval 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C2F94DA-329D-412F-A098-BBB87DBC7E2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3662084" y="6757896"/>
+          <a:ext cx="903940" cy="575235"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1200" b="0"/>
+            <a:t>Jaxson</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>543860</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>23907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>222623</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38848</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Oval 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AD2C4C2-0A1A-4355-B985-AAC13E8D7329}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3606801" y="7494495"/>
+          <a:ext cx="903940" cy="575235"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1200" b="0"/>
+            <a:t>Liam</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>524437</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>26895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>41836</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Oval 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85116C97-1E13-43A2-B0B1-74AFFA17AB58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3587378" y="8244542"/>
+          <a:ext cx="903940" cy="575235"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1200" b="0"/>
+            <a:t>Isaac</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>502025</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>26895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180788</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>41836</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Oval 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0460D24-D327-4539-81BB-0E085AD087CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3564966" y="8991601"/>
+          <a:ext cx="903940" cy="575235"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1200" b="0"/>
+            <a:t>Jake</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>536552</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>179292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>14921</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>4461</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5F6EBE5-8030-42BB-B9D8-A3E56E163A39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="5077094" y="2563986"/>
+          <a:ext cx="15513404" cy="11117545"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>119528</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>7472</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>425822</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>156884</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Oval 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93D5A3CE-C792-4A83-AFFA-AB450ABB3BA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9308352" y="13081001"/>
+          <a:ext cx="918882" cy="522942"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1200" b="0"/>
+            <a:t>Canaan</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>67236</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>167341</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>440764</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>182281</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Oval 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FE88E38-122A-4A21-923E-2594A2A1D528}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12319001" y="11933517"/>
+          <a:ext cx="986116" cy="575235"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1200" b="0"/>
+            <a:t>Brayden</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>602128</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>52295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>261471</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>82176</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Oval 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F78A43-8BA7-41FC-BD46-AD7DCEDFF996}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7953187" y="10324354"/>
+          <a:ext cx="884519" cy="590175"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1200" b="0"/>
+            <a:t>Skyler</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>25399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>369047</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Oval 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB1F4C41-7B25-4BE7-85EF-E227A5F9ECA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9278471" y="13659223"/>
+          <a:ext cx="891988" cy="527425"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1200" b="0"/>
+            <a:t>Callum</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>245199</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>89645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>194236</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>29882</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Oval 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB24334-9CE0-4CA4-8385-4C79C15411DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12437199" y="15558245"/>
+          <a:ext cx="1168237" cy="492687"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="1"/>
+            <a:t>Easton</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>70226</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>132979</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>361578</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>147919</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Oval 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D00EE2-A393-4CF1-BF24-3BC47EDE49B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15997520" y="13206508"/>
+          <a:ext cx="903940" cy="575235"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1200" b="0"/>
+            <a:t>Logan</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>32872</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>103096</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>324224</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>118037</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Oval 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{058E6C0B-E95A-45AD-B05B-5C7C8F2DE84D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12897225" y="9441331"/>
+          <a:ext cx="903940" cy="575235"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1200" b="0"/>
+            <a:t>Alex</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>144931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>331694</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>107578</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Oval 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0DE3EF0-AE48-41C7-8827-116AE63F5B37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12889753" y="10043460"/>
+          <a:ext cx="918882" cy="522942"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1200" b="0"/>
+            <a:t>Gratian</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>20918</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>31378</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>312270</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>46319</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Oval 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29BA8317-BE9B-4492-B53F-A8604FBE4DE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17173389" y="10303437"/>
+          <a:ext cx="903940" cy="575235"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1200" b="0"/>
+            <a:t>Noah</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1200" b="0" baseline="0"/>
+            <a:t> S</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1200" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>569258</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>11956</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>328705</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>26897</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Oval 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23DC239E-1387-4AC8-BD97-ADE3BC96E68E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7920317" y="9723721"/>
+          <a:ext cx="984623" cy="575235"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1200" b="0"/>
+            <a:t>Noah</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1200" b="0" baseline="0"/>
+            <a:t> M</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1200" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>38848</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>176309</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>4485</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Oval 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A69B238-FEA7-49FD-94E9-575DC4CA8622}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17191319" y="9701309"/>
+          <a:ext cx="903940" cy="575235"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1200" b="0"/>
+            <a:t>Jaxson</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>327212</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>1495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>5976</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>16436</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Oval 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD05E49B-1946-42BF-B42C-89283DEE9CC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12578977" y="7658848"/>
+          <a:ext cx="903940" cy="575235"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1200" b="0"/>
+            <a:t>Liam</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>472142</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>150906</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Oval 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{348B6F2A-5B2C-4A0E-98E1-98B18740C903}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13336495" y="7945718"/>
+          <a:ext cx="903940" cy="575235"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1200" b="0"/>
+            <a:t>Isaac</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>61260</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>183777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>352612</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>11954</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Oval 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3F3CA08-0E47-497B-96CF-925F77C5EAB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12313025" y="12510248"/>
+          <a:ext cx="903940" cy="575235"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1200" b="0"/>
+            <a:t>Jake</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>170703</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -595,7 +2516,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1085,7 +3006,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1978,7 +3899,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2898,7 +4819,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3950,7 +5871,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4982,7 +6903,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6100,8 +8021,1776 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>550990</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>11586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>528204</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>2166</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{146E5A01-9F53-4F62-8E23-BD3167AF0893}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="11414353" y="3164405"/>
+          <a:ext cx="16800762" cy="11603487"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>163673</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>60929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>141262</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>72571</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Oval 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8F6E15E-47D3-4979-BC71-EDDDAAE73ED0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15358316" y="18203786"/>
+          <a:ext cx="585375" cy="555928"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1400" b="1"/>
+            <a:t>L D</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>546365</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>169606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>569898</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>3119</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Oval 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CA13718-CFB2-438B-A6BB-06AB50837D3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23034436" y="18131035"/>
+          <a:ext cx="631319" cy="559227"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1400" b="1"/>
+            <a:t>R D</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>309281</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>8859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>321234</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>23800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Oval 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5BE5C19-3184-4D9D-B9EE-E6745F8D436E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14288352" y="15067430"/>
+          <a:ext cx="619739" cy="559227"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1200" b="1"/>
+            <a:t>L M</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>585714</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>79945</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>37691</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>167556</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Oval 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24EE5F9D-D455-4777-AD09-6AA05AA724FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19427071" y="16771374"/>
+          <a:ext cx="667549" cy="631896"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" b="1"/>
+            <a:t>CDM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>207818</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>92364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>554181</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>92364</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0682C221-FBD0-B004-F021-7EBBEFF2BB63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14281727" y="15055273"/>
+          <a:ext cx="10748818" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>126117</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>60077</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>472480</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>60077</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E005FFC-2BBD-428C-9860-A2F5A91FD5AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14200026" y="10958986"/>
+          <a:ext cx="10748818" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>267991</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>47845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>327755</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>137493</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Oval 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54A0DD82-813D-4487-9299-6BC6739CBC51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20460991" y="19444209"/>
+          <a:ext cx="671673" cy="643829"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" b="1"/>
+            <a:t>GK</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>90715</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C6A50E-DEC6-10B8-49C5-DDA9C0FE7194}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="21045714" y="18796000"/>
+          <a:ext cx="1533072" cy="489857"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>172356</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>453571</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>45357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90410CA5-1541-8A82-2F99-58E363A9D613}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId3">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2603499" y="13870215"/>
+          <a:ext cx="6359072" cy="1596571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>164193</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>170541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>408215</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>45355</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E214F8C-07EE-4AB8-8E71-49FF04C03621}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId5">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2595336" y="13233398"/>
+          <a:ext cx="6321879" cy="963387"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>408214</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>36286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>299357</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>145143</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Straight Arrow Connector 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4EAFB8E-B2A0-4AAF-9F11-5E9F03A2F79E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="23504071" y="15639143"/>
+          <a:ext cx="498929" cy="2104571"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>528918</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>120170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>588682</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>28389</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Oval 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91EF3891-7562-49E5-8962-84027182C07E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18762489" y="14634456"/>
+          <a:ext cx="667550" cy="633933"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" b="1"/>
+            <a:t>CAM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>195301</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>116650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>287936</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>21880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Oval 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9C3AD1F-FF79-4B25-ACE7-6989CB990DCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19036658" y="12816650"/>
+          <a:ext cx="700421" cy="630944"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="1"/>
+            <a:t>S</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>253727</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>103697</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>326939</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>170390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Oval 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2AE9587-25FB-4CEC-BD8B-0740FA107E85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23957370" y="14799411"/>
+          <a:ext cx="680998" cy="610979"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>R M</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>526143</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>108855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>107042</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Straight Arrow Connector 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84635963-A366-4A97-A209-B877919BFF43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="24229786" y="9180284"/>
+          <a:ext cx="7257" cy="3445329"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>208642</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>172357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>223156</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>23586</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Straight Arrow Connector 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04F78A31-FAE9-4CAB-AFDB-210097B7D5F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="22088928" y="11965214"/>
+          <a:ext cx="1837871" cy="1121229"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>72571</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>548251</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>92582</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B958E194-74D7-851E-E6DB-B0977F152FB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId7">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2503714" y="12101285"/>
+          <a:ext cx="6553537" cy="1054154"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>577285</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>13654</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{586871EB-A149-233D-80EC-49496231BC55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId9">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2431143" y="11067143"/>
+          <a:ext cx="6655142" cy="920797"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561523</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>145143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>79827</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Picture 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F30CDE0-C2E6-4106-911D-600DF68D30FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId5">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6031594" y="16473714"/>
+          <a:ext cx="3411763" cy="478971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>274135</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>136678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>145320</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>148918</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51547830-37BB-4BC0-A703-D8EB0B2A241C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId5">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="18612767">
+          <a:off x="14341429" y="13964027"/>
+          <a:ext cx="2733669" cy="478971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>193370</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>115432</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>64555</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>118394</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A6AEAE7-1B08-42A0-85BA-9CFB0CBBC1F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId5">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="18897256">
+          <a:off x="15571589" y="17113141"/>
+          <a:ext cx="2542962" cy="478971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>438434</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>59515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>309620</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>174479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Picture 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80E1962E-2DE2-4E06-B5AD-3604D2B63AE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId5">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="18427181">
+          <a:off x="19316653" y="15389654"/>
+          <a:ext cx="2836392" cy="478971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>27655</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>126978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>506626</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>70374</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Picture 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8046790E-28B7-447F-BE21-BCE83D0BE79A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId5">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="18602103">
+          <a:off x="18628801" y="13194190"/>
+          <a:ext cx="3390537" cy="478971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>96489</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>140404</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>575460</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>147720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Picture 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79619372-C1BF-456C-AB2F-A893BE73D077}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId5">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16710693">
+          <a:off x="17513603" y="10155290"/>
+          <a:ext cx="4543030" cy="478971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>373250</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>56379</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>244435</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>148740</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Picture 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC7E4D97-2665-4F03-96EB-1BAE7668C050}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId5">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="23272341" y="13560931"/>
+          <a:ext cx="2088075" cy="478971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>542471</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>61685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>556985</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>94343</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="Straight Arrow Connector 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B895E7AD-5D3F-4399-A737-9417911CDB34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="21814971" y="13668828"/>
+          <a:ext cx="1837871" cy="1121229"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>526142</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>36285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>453571</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="Arc 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{854BA5C0-7E3F-2984-D19A-6F62B02C1EAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18151928" y="6930571"/>
+          <a:ext cx="6005286" cy="3002643"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>240912</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>314124</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>68383</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="Oval 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91E874C2-1E53-491D-8173-EFB2FB9E6F41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24105367" y="4804599"/>
+          <a:ext cx="685121" cy="620875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>R M</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>125203</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>162832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>217838</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>68062</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="Oval 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A920C6A3-78B0-4E81-B7CF-5CEDBBDC8C16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19706294" y="3672650"/>
+          <a:ext cx="704544" cy="644139"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="1"/>
+            <a:t>S</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6400,7 +10089,774 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034531C4-B270-4CD2-8B6B-D93378DD8036}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="M10:AE92"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="10" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+    </row>
+    <row r="11" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+    </row>
+    <row r="12" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+    </row>
+    <row r="13" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+    </row>
+    <row r="14" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+    </row>
+    <row r="15" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+    </row>
+    <row r="16" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+    </row>
+    <row r="17" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+    </row>
+    <row r="18" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+    </row>
+    <row r="19" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+    </row>
+    <row r="20" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+    </row>
+    <row r="21" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+    </row>
+    <row r="22" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+    </row>
+    <row r="23" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+    </row>
+    <row r="24" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+    </row>
+    <row r="25" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+    </row>
+    <row r="26" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+    </row>
+    <row r="27" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+    </row>
+    <row r="28" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+    </row>
+    <row r="29" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+    </row>
+    <row r="30" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+    </row>
+    <row r="31" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+    </row>
+    <row r="32" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+    </row>
+    <row r="33" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+    </row>
+    <row r="34" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+    </row>
+    <row r="35" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+    </row>
+    <row r="36" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+    </row>
+    <row r="37" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+    </row>
+    <row r="38" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+    </row>
+    <row r="39" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+    </row>
+    <row r="40" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+    </row>
+    <row r="41" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+    </row>
+    <row r="42" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+    </row>
+    <row r="43" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+    </row>
+    <row r="44" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+    </row>
+    <row r="45" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+    </row>
+    <row r="46" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+    </row>
+    <row r="47" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+    </row>
+    <row r="48" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+    </row>
+    <row r="49" spans="13:31" x14ac:dyDescent="0.35">
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+    </row>
+    <row r="50" spans="13:31" x14ac:dyDescent="0.35">
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+    </row>
+    <row r="51" spans="13:31" x14ac:dyDescent="0.35">
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+    </row>
+    <row r="52" spans="13:31" x14ac:dyDescent="0.35">
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+    </row>
+    <row r="53" spans="13:31" x14ac:dyDescent="0.35">
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
+    </row>
+    <row r="54" spans="13:31" x14ac:dyDescent="0.35">
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1"/>
+    </row>
+    <row r="55" spans="13:31" x14ac:dyDescent="0.35">
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
+    </row>
+    <row r="56" spans="13:31" x14ac:dyDescent="0.35">
+      <c r="AD56" s="1"/>
+      <c r="AE56" s="1"/>
+    </row>
+    <row r="57" spans="13:31" x14ac:dyDescent="0.35">
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="1"/>
+    </row>
+    <row r="58" spans="13:31" x14ac:dyDescent="0.35">
+      <c r="AD58" s="1"/>
+      <c r="AE58" s="1"/>
+    </row>
+    <row r="59" spans="13:31" x14ac:dyDescent="0.35">
+      <c r="AD59" s="1"/>
+      <c r="AE59" s="1"/>
+    </row>
+    <row r="60" spans="13:31" x14ac:dyDescent="0.35">
+      <c r="AD60" s="1"/>
+      <c r="AE60" s="1"/>
+    </row>
+    <row r="61" spans="13:31" x14ac:dyDescent="0.35">
+      <c r="AD61" s="1"/>
+      <c r="AE61" s="1"/>
+    </row>
+    <row r="62" spans="13:31" x14ac:dyDescent="0.35">
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="1"/>
+      <c r="AA62" s="1"/>
+      <c r="AB62" s="1"/>
+      <c r="AC62" s="1"/>
+      <c r="AD62" s="1"/>
+      <c r="AE62" s="1"/>
+    </row>
+    <row r="63" spans="13:31" x14ac:dyDescent="0.35">
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="1"/>
+      <c r="AC63" s="1"/>
+      <c r="AD63" s="1"/>
+      <c r="AE63" s="1"/>
+    </row>
+    <row r="64" spans="13:31" x14ac:dyDescent="0.35">
+      <c r="AD64" s="1"/>
+      <c r="AE64" s="1"/>
+    </row>
+    <row r="65" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD65" s="1"/>
+      <c r="AE65" s="1"/>
+    </row>
+    <row r="66" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD66" s="1"/>
+      <c r="AE66" s="1"/>
+    </row>
+    <row r="67" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="1"/>
+    </row>
+    <row r="68" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD68" s="1"/>
+      <c r="AE68" s="1"/>
+    </row>
+    <row r="69" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="1"/>
+    </row>
+    <row r="70" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD70" s="1"/>
+      <c r="AE70" s="1"/>
+    </row>
+    <row r="71" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD71" s="1"/>
+      <c r="AE71" s="1"/>
+    </row>
+    <row r="72" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD72" s="1"/>
+      <c r="AE72" s="1"/>
+    </row>
+    <row r="73" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD73" s="1"/>
+      <c r="AE73" s="1"/>
+    </row>
+    <row r="74" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD74" s="1"/>
+      <c r="AE74" s="1"/>
+    </row>
+    <row r="75" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD75" s="1"/>
+      <c r="AE75" s="1"/>
+    </row>
+    <row r="76" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD76" s="1"/>
+      <c r="AE76" s="1"/>
+    </row>
+    <row r="77" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD77" s="1"/>
+      <c r="AE77" s="1"/>
+    </row>
+    <row r="78" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD78" s="1"/>
+      <c r="AE78" s="1"/>
+    </row>
+    <row r="79" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD79" s="1"/>
+      <c r="AE79" s="1"/>
+    </row>
+    <row r="80" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD80" s="1"/>
+      <c r="AE80" s="1"/>
+    </row>
+    <row r="81" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD81" s="1"/>
+      <c r="AE81" s="1"/>
+    </row>
+    <row r="82" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD82" s="1"/>
+      <c r="AE82" s="1"/>
+    </row>
+    <row r="83" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD83" s="1"/>
+      <c r="AE83" s="1"/>
+    </row>
+    <row r="84" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD84" s="1"/>
+      <c r="AE84" s="1"/>
+    </row>
+    <row r="85" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD85" s="1"/>
+      <c r="AE85" s="1"/>
+    </row>
+    <row r="86" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD86" s="1"/>
+      <c r="AE86" s="1"/>
+    </row>
+    <row r="87" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD87" s="1"/>
+      <c r="AE87" s="1"/>
+    </row>
+    <row r="88" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD88" s="1"/>
+      <c r="AE88" s="1"/>
+    </row>
+    <row r="89" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD89" s="1"/>
+      <c r="AE89" s="1"/>
+    </row>
+    <row r="90" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD90" s="1"/>
+      <c r="AE90" s="1"/>
+    </row>
+    <row r="91" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD91" s="1"/>
+      <c r="AE91" s="1"/>
+    </row>
+    <row r="92" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD92" s="1"/>
+      <c r="AE92" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D35081E-911D-4F32-811C-93F2ABBE47A8}">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="M3:AE85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AI53" sqref="AI53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+    </row>
+    <row r="4" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+    </row>
+    <row r="5" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+    </row>
+    <row r="6" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+    </row>
+    <row r="7" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+    </row>
+    <row r="8" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+    </row>
+    <row r="9" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+    </row>
+    <row r="10" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+    </row>
+    <row r="11" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+    </row>
+    <row r="12" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+    </row>
+    <row r="13" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+    </row>
+    <row r="14" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+    </row>
+    <row r="15" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+    </row>
+    <row r="16" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+    </row>
+    <row r="17" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+    </row>
+    <row r="18" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+    </row>
+    <row r="19" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+    </row>
+    <row r="20" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+    </row>
+    <row r="21" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+    </row>
+    <row r="22" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+    </row>
+    <row r="23" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+    </row>
+    <row r="24" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+    </row>
+    <row r="25" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+    </row>
+    <row r="26" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+    </row>
+    <row r="27" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+    </row>
+    <row r="28" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+    </row>
+    <row r="29" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+    </row>
+    <row r="30" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+    </row>
+    <row r="31" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+    </row>
+    <row r="32" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+    </row>
+    <row r="33" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+    </row>
+    <row r="34" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+    </row>
+    <row r="35" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+    </row>
+    <row r="36" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+    </row>
+    <row r="37" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+    </row>
+    <row r="38" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+    </row>
+    <row r="39" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+    </row>
+    <row r="40" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+    </row>
+    <row r="41" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+    </row>
+    <row r="42" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+    </row>
+    <row r="43" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+    </row>
+    <row r="44" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+    </row>
+    <row r="45" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+    </row>
+    <row r="46" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+    </row>
+    <row r="47" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+    </row>
+    <row r="48" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+    </row>
+    <row r="49" spans="13:31" x14ac:dyDescent="0.35">
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+    </row>
+    <row r="50" spans="13:31" x14ac:dyDescent="0.35">
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+    </row>
+    <row r="51" spans="13:31" x14ac:dyDescent="0.35">
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+    </row>
+    <row r="52" spans="13:31" x14ac:dyDescent="0.35">
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+    </row>
+    <row r="53" spans="13:31" x14ac:dyDescent="0.35">
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
+    </row>
+    <row r="54" spans="13:31" x14ac:dyDescent="0.35">
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1"/>
+    </row>
+    <row r="55" spans="13:31" x14ac:dyDescent="0.35">
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
+    </row>
+    <row r="56" spans="13:31" x14ac:dyDescent="0.35">
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="1"/>
+      <c r="AC56" s="1"/>
+      <c r="AD56" s="1"/>
+      <c r="AE56" s="1"/>
+    </row>
+    <row r="57" spans="13:31" x14ac:dyDescent="0.35">
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="1"/>
+    </row>
+    <row r="58" spans="13:31" x14ac:dyDescent="0.35">
+      <c r="AD58" s="1"/>
+      <c r="AE58" s="1"/>
+    </row>
+    <row r="59" spans="13:31" x14ac:dyDescent="0.35">
+      <c r="AD59" s="1"/>
+      <c r="AE59" s="1"/>
+    </row>
+    <row r="60" spans="13:31" x14ac:dyDescent="0.35">
+      <c r="AD60" s="1"/>
+      <c r="AE60" s="1"/>
+    </row>
+    <row r="61" spans="13:31" x14ac:dyDescent="0.35">
+      <c r="AD61" s="1"/>
+      <c r="AE61" s="1"/>
+    </row>
+    <row r="62" spans="13:31" x14ac:dyDescent="0.35">
+      <c r="AD62" s="1"/>
+      <c r="AE62" s="1"/>
+    </row>
+    <row r="63" spans="13:31" x14ac:dyDescent="0.35">
+      <c r="AD63" s="1"/>
+      <c r="AE63" s="1"/>
+    </row>
+    <row r="64" spans="13:31" x14ac:dyDescent="0.35">
+      <c r="AD64" s="1"/>
+      <c r="AE64" s="1"/>
+    </row>
+    <row r="65" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD65" s="1"/>
+      <c r="AE65" s="1"/>
+    </row>
+    <row r="66" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD66" s="1"/>
+      <c r="AE66" s="1"/>
+    </row>
+    <row r="67" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="1"/>
+    </row>
+    <row r="68" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD68" s="1"/>
+      <c r="AE68" s="1"/>
+    </row>
+    <row r="69" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="1"/>
+    </row>
+    <row r="70" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD70" s="1"/>
+      <c r="AE70" s="1"/>
+    </row>
+    <row r="71" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD71" s="1"/>
+      <c r="AE71" s="1"/>
+    </row>
+    <row r="72" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD72" s="1"/>
+      <c r="AE72" s="1"/>
+    </row>
+    <row r="73" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD73" s="1"/>
+      <c r="AE73" s="1"/>
+    </row>
+    <row r="74" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD74" s="1"/>
+      <c r="AE74" s="1"/>
+    </row>
+    <row r="75" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD75" s="1"/>
+      <c r="AE75" s="1"/>
+    </row>
+    <row r="76" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD76" s="1"/>
+      <c r="AE76" s="1"/>
+    </row>
+    <row r="77" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD77" s="1"/>
+      <c r="AE77" s="1"/>
+    </row>
+    <row r="78" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD78" s="1"/>
+      <c r="AE78" s="1"/>
+    </row>
+    <row r="79" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD79" s="1"/>
+      <c r="AE79" s="1"/>
+    </row>
+    <row r="80" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD80" s="1"/>
+      <c r="AE80" s="1"/>
+    </row>
+    <row r="81" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD81" s="1"/>
+      <c r="AE81" s="1"/>
+    </row>
+    <row r="82" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD82" s="1"/>
+      <c r="AE82" s="1"/>
+    </row>
+    <row r="83" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD83" s="1"/>
+      <c r="AE83" s="1"/>
+    </row>
+    <row r="84" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD84" s="1"/>
+      <c r="AE84" s="1"/>
+    </row>
+    <row r="85" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD85" s="1"/>
+      <c r="AE85" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B442C154-8E42-4DA1-8C7D-1CE38E91B61C}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="G62:AI63"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -6477,8 +10933,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F15CA8F-F062-487B-84BC-2DD63AE94D06}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="G62:AI63"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -6555,8 +11012,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA1FB2F-D417-4AF7-BC69-B3560EEB3D76}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="G62:AI63"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -6633,8 +11091,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DABD16-EFDF-4B9D-B11D-24F1214F0D0E}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="G62:AI63"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -6711,8 +11170,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC8FB7C-A08D-4998-9238-9BCB72FC10F3}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="G62:AI63"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -6789,11 +11249,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA8AD10-4883-4FA5-9C50-16BAA153A220}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="G62:AI63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AN33" sqref="AN33"/>
     </sheetView>
   </sheetViews>
@@ -6867,12 +11328,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E34D57-BA79-4362-84C5-F6A385933C47}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="G62:AI63"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62:AI63"/>
+      <selection activeCell="N65" sqref="N65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6943,4 +11405,385 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B0F200-13F4-4AFE-91C7-CA7A7D170C47}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="W4:X94"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AZ70" sqref="AZ70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="4" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+    </row>
+    <row r="9" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+    </row>
+    <row r="11" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+    </row>
+    <row r="12" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+    </row>
+    <row r="13" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+    </row>
+    <row r="14" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+    </row>
+    <row r="15" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+    </row>
+    <row r="16" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+    </row>
+    <row r="17" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+    </row>
+    <row r="18" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+    </row>
+    <row r="19" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+    </row>
+    <row r="20" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+    </row>
+    <row r="21" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+    </row>
+    <row r="22" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+    </row>
+    <row r="23" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+    </row>
+    <row r="24" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+    </row>
+    <row r="25" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+    </row>
+    <row r="26" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+    </row>
+    <row r="27" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+    </row>
+    <row r="28" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+    </row>
+    <row r="29" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+    </row>
+    <row r="30" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+    </row>
+    <row r="31" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+    </row>
+    <row r="32" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+    </row>
+    <row r="33" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+    </row>
+    <row r="34" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+    </row>
+    <row r="35" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+    </row>
+    <row r="36" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+    </row>
+    <row r="37" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+    </row>
+    <row r="38" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+    </row>
+    <row r="39" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+    </row>
+    <row r="40" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+    </row>
+    <row r="41" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+    </row>
+    <row r="42" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+    </row>
+    <row r="43" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+    </row>
+    <row r="44" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+    </row>
+    <row r="45" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+    </row>
+    <row r="46" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+    </row>
+    <row r="47" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+    </row>
+    <row r="48" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+    </row>
+    <row r="49" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+    </row>
+    <row r="50" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+    </row>
+    <row r="51" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+    </row>
+    <row r="52" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+    </row>
+    <row r="53" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+    </row>
+    <row r="54" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+    </row>
+    <row r="55" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+    </row>
+    <row r="56" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+    </row>
+    <row r="57" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+    </row>
+    <row r="58" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+    </row>
+    <row r="59" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+    </row>
+    <row r="60" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+    </row>
+    <row r="61" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+    </row>
+    <row r="62" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+    </row>
+    <row r="63" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+    </row>
+    <row r="64" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+    </row>
+    <row r="65" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+    </row>
+    <row r="66" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+    </row>
+    <row r="67" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+    </row>
+    <row r="68" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+    </row>
+    <row r="69" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+    </row>
+    <row r="70" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+    </row>
+    <row r="71" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+    </row>
+    <row r="72" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+    </row>
+    <row r="73" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
+    </row>
+    <row r="74" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+    </row>
+    <row r="75" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+    </row>
+    <row r="76" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+    </row>
+    <row r="77" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+    </row>
+    <row r="78" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+    </row>
+    <row r="79" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+    </row>
+    <row r="80" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+    </row>
+    <row r="81" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+    </row>
+    <row r="82" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+    </row>
+    <row r="83" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+    </row>
+    <row r="84" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W84" s="1"/>
+      <c r="X84" s="1"/>
+    </row>
+    <row r="85" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
+    </row>
+    <row r="86" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+    </row>
+    <row r="87" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+    </row>
+    <row r="88" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+    </row>
+    <row r="89" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+    </row>
+    <row r="90" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+    </row>
+    <row r="91" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+    </row>
+    <row r="92" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W92" s="1"/>
+      <c r="X92" s="1"/>
+    </row>
+    <row r="93" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
+    </row>
+    <row r="94" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W94" s="1"/>
+      <c r="X94" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>